--- a/Data/EC/NIT-8904010673.xlsx
+++ b/Data/EC/NIT-8904010673.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F1054B8-51A3-48E3-AF1F-8E052465CF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF301AB3-414C-4942-8FAA-A021F62037AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E465001F-0A5E-4094-819E-6D94A1596CB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43D22E1C-3B3A-4E00-A266-6C89C5752D2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,34 +65,424 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45484804</t>
+  </si>
+  <si>
+    <t>LUBIEL DEL CARMEN VILLA SILGADO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>73111654</t>
+  </si>
+  <si>
+    <t>ALBERTO JOSE FLOREZ ESPINOSA</t>
+  </si>
+  <si>
+    <t>45529526</t>
+  </si>
+  <si>
+    <t>HEIDI CAROLINA OLASCUAGA URRIOLA</t>
+  </si>
+  <si>
+    <t>45690396</t>
+  </si>
+  <si>
+    <t>YENIS DEL CARMEN TORRES ACOSTA</t>
+  </si>
+  <si>
+    <t>9288350</t>
+  </si>
+  <si>
+    <t>MILTON MANUEL SANTIA PAJARO PUELLO</t>
+  </si>
+  <si>
     <t>73117098</t>
   </si>
   <si>
     <t>BERNARDO FEDERICO DE LEON VARGAS</t>
   </si>
   <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
     <t>1609</t>
   </si>
   <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
+    <t>1047393662</t>
+  </si>
+  <si>
+    <t>YESID ALEJANDRO GALVIZ GARCIA</t>
+  </si>
+  <si>
+    <t>9147760</t>
+  </si>
+  <si>
+    <t>ARIEL ANTONIO CARDALES RONCO</t>
+  </si>
+  <si>
+    <t>45469553</t>
+  </si>
+  <si>
+    <t>MARGARITA EUGENIA TORRES BLANCO</t>
+  </si>
+  <si>
+    <t>73229157</t>
+  </si>
+  <si>
+    <t>ALVARO JOSE POTES VILLALBA</t>
+  </si>
+  <si>
+    <t>1047472893</t>
+  </si>
+  <si>
+    <t>YOER JOSE FLOREZ SILGADO</t>
+  </si>
+  <si>
+    <t>7920453</t>
+  </si>
+  <si>
+    <t>ANTONIO CORDOBA CORREA</t>
+  </si>
+  <si>
+    <t>64500244</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA LUNA QUIROZ</t>
+  </si>
+  <si>
+    <t>9294973</t>
+  </si>
+  <si>
+    <t>ELIAS AHUMEDO ZAMORA</t>
+  </si>
+  <si>
+    <t>73129874</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDO FRIAS HERNANDEZ</t>
+  </si>
+  <si>
+    <t>73131868</t>
+  </si>
+  <si>
+    <t>CARLOS JESUS LORDUY ROMAN</t>
+  </si>
+  <si>
+    <t>73141609</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO ESTRADA TAMARA</t>
+  </si>
+  <si>
+    <t>1050946780</t>
+  </si>
+  <si>
+    <t>HENRY DAVID MORENO JULIO</t>
+  </si>
+  <si>
+    <t>1143332224</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES CASTILLO CARRILLO</t>
+  </si>
+  <si>
+    <t>73137090</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE ASHOOK CALDERIN</t>
+  </si>
+  <si>
+    <t>1143343096</t>
+  </si>
+  <si>
+    <t>JULIETH LISSETH LABARCES ACOSTA</t>
+  </si>
+  <si>
+    <t>45761000</t>
+  </si>
+  <si>
+    <t>ELA CECILIA OSORIO ESPINOSA</t>
+  </si>
+  <si>
+    <t>18009698</t>
+  </si>
+  <si>
+    <t>NALLYD CARDONA ATENCIO</t>
+  </si>
+  <si>
+    <t>78076826</t>
+  </si>
+  <si>
+    <t>ALFREDO LUIS CUELLO BOSSA</t>
+  </si>
+  <si>
+    <t>33205126</t>
+  </si>
+  <si>
+    <t>MARELVI CELEDONIA FERIA ACUÑA</t>
+  </si>
+  <si>
+    <t>1143348658</t>
+  </si>
+  <si>
+    <t>KAREN PAOLA RUEDA HERAZO</t>
+  </si>
+  <si>
+    <t>1047452849</t>
+  </si>
+  <si>
+    <t>PEDRO ANDRES LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>30775809</t>
+  </si>
+  <si>
+    <t>SORAYA FIGUEROA VILLAMIL</t>
+  </si>
+  <si>
+    <t>73189750</t>
+  </si>
+  <si>
+    <t>ALEXANDER PASSO MORENO</t>
+  </si>
+  <si>
+    <t>43991455</t>
+  </si>
+  <si>
+    <t>HEIDY TATIANA GONZALEZ OCAMPO</t>
+  </si>
+  <si>
+    <t>22456953</t>
+  </si>
+  <si>
+    <t>ANA ISABEL ROSAS MOLINA</t>
+  </si>
+  <si>
+    <t>9111759</t>
+  </si>
+  <si>
+    <t>ELEAZAR HERNANDEZ MONTES</t>
+  </si>
+  <si>
+    <t>45532902</t>
+  </si>
+  <si>
+    <t>SISSY EMPERATRIZ ALGARIN MENDOZA</t>
+  </si>
+  <si>
+    <t>1047452800</t>
+  </si>
+  <si>
+    <t>EDUARDO JOSE MARTINEZ DAVILA</t>
+  </si>
+  <si>
+    <t>1047418613</t>
+  </si>
+  <si>
+    <t>YEMENSON PATERNINA TEHERAN</t>
+  </si>
+  <si>
+    <t>73110176</t>
+  </si>
+  <si>
+    <t>JOSE LUIS ARZUZA JIMENEZ</t>
+  </si>
+  <si>
+    <t>51898690</t>
+  </si>
+  <si>
+    <t>MARCELA MUNAR GONZALEZ</t>
+  </si>
+  <si>
+    <t>3894469</t>
+  </si>
+  <si>
+    <t>OSBALDO BLANCO TERAN</t>
+  </si>
+  <si>
+    <t>1143354593</t>
+  </si>
+  <si>
+    <t>LIZETH PEREZ FRANCO</t>
+  </si>
+  <si>
+    <t>22804672</t>
+  </si>
+  <si>
+    <t>MERLY DEL CARMEN CAICEDO ARZUZA</t>
+  </si>
+  <si>
+    <t>1007401962</t>
+  </si>
+  <si>
+    <t>JEFERSON RECUERO MORELO</t>
+  </si>
+  <si>
+    <t>9096829</t>
+  </si>
+  <si>
+    <t>DONACYTER MARSIGLIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>73110089</t>
+  </si>
+  <si>
+    <t>GILBERTO CHICO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1143335470</t>
+  </si>
+  <si>
+    <t>DEIBY ALONSO CARRASCAL AGUIRRE</t>
+  </si>
+  <si>
+    <t>1047405776</t>
+  </si>
+  <si>
+    <t>ANDY CANTILLO TORRES</t>
+  </si>
+  <si>
+    <t>1143401809</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE ALMEIDA CABARCAS</t>
+  </si>
+  <si>
+    <t>1104701506</t>
+  </si>
+  <si>
+    <t>MARGARITA MARIA PARRA MENDOZA</t>
+  </si>
+  <si>
+    <t>1047403516</t>
+  </si>
+  <si>
+    <t>LUISA FERNANDA CORRALES PEREZ</t>
+  </si>
+  <si>
+    <t>1143363058</t>
+  </si>
+  <si>
+    <t>HAROLD ENRIQUE MAZA JULIO</t>
+  </si>
+  <si>
+    <t>1128058560</t>
+  </si>
+  <si>
+    <t>ALEX JESUS HERNANDEZ BARRERA</t>
+  </si>
+  <si>
+    <t>1007276897</t>
+  </si>
+  <si>
+    <t>YURIS MARCELA RUIZ LOPEZ</t>
+  </si>
+  <si>
+    <t>73106139</t>
+  </si>
+  <si>
+    <t>JULIO CESAR ARCINIEGAS LOPEZ</t>
+  </si>
+  <si>
+    <t>73008307</t>
+  </si>
+  <si>
+    <t>WILSON ANDRES FERRER SUAREZ</t>
+  </si>
+  <si>
+    <t>1143346805</t>
+  </si>
+  <si>
+    <t>ERICK AREVALO TORRES</t>
+  </si>
+  <si>
+    <t>45496778</t>
+  </si>
+  <si>
+    <t>MARELBI MIRANDA MARRUGO</t>
+  </si>
+  <si>
+    <t>1143380612</t>
+  </si>
+  <si>
+    <t>KENLLY PAOLA MARTINEZ MORALES</t>
+  </si>
+  <si>
+    <t>1067922403</t>
+  </si>
+  <si>
+    <t>JESUS CONTRERAS BERNAL</t>
+  </si>
+  <si>
+    <t>1143359183</t>
+  </si>
+  <si>
+    <t>NICOLAS DAVID RIOS NAVARRO</t>
+  </si>
+  <si>
+    <t>1050967283</t>
+  </si>
+  <si>
+    <t>WENDY JOHANA PAJARO ROMERO</t>
+  </si>
+  <si>
+    <t>1003061295</t>
+  </si>
+  <si>
+    <t>LUIS DAVID GUERRA PATRON</t>
+  </si>
+  <si>
+    <t>1143398622</t>
+  </si>
+  <si>
+    <t>VALENTIN HENAO GIRALDO</t>
+  </si>
+  <si>
+    <t>1151448637</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL CASTRO ALVAREZ</t>
+  </si>
+  <si>
+    <t>1143364084</t>
+  </si>
+  <si>
+    <t>JORDYS DE JESÚS SINMING GÓMEZ</t>
+  </si>
+  <si>
+    <t>1001898664</t>
+  </si>
+  <si>
+    <t>ZURY ZARAY ROJAS GOMEZ</t>
+  </si>
+  <si>
+    <t>1050970387</t>
+  </si>
+  <si>
+    <t>WENDY DEVOZ CASTILLO</t>
   </si>
   <si>
     <t>1102856766</t>
@@ -101,409 +491,19 @@
     <t>ANGIE JOHANNA FUENTES ANGARITA</t>
   </si>
   <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
     <t>1708</t>
   </si>
   <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1047403516</t>
-  </si>
-  <si>
-    <t>LUISA FERNANDA CORRALES PEREZ</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1143398622</t>
-  </si>
-  <si>
-    <t>VALENTIN HENAO GIRALDO</t>
-  </si>
-  <si>
-    <t>73189750</t>
-  </si>
-  <si>
-    <t>ALEXANDER PASSO MORENO</t>
-  </si>
-  <si>
-    <t>3894469</t>
-  </si>
-  <si>
-    <t>OSBALDO BLANCO TERAN</t>
-  </si>
-  <si>
-    <t>9096829</t>
-  </si>
-  <si>
-    <t>DONACYTER MARSIGLIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>73008307</t>
-  </si>
-  <si>
-    <t>WILSON ANDRES FERRER SUAREZ</t>
-  </si>
-  <si>
-    <t>9111759</t>
-  </si>
-  <si>
-    <t>ELEAZAR HERNANDEZ MONTES</t>
-  </si>
-  <si>
-    <t>43991455</t>
-  </si>
-  <si>
-    <t>HEIDY TATIANA GONZALEZ OCAMPO</t>
-  </si>
-  <si>
-    <t>22804672</t>
-  </si>
-  <si>
-    <t>MERLY DEL CARMEN CAICEDO ARZUZA</t>
-  </si>
-  <si>
-    <t>1143363058</t>
-  </si>
-  <si>
-    <t>HAROLD ENRIQUE MAZA JULIO</t>
-  </si>
-  <si>
-    <t>1128058560</t>
-  </si>
-  <si>
-    <t>ALEX JESUS HERNANDEZ BARRERA</t>
-  </si>
-  <si>
-    <t>78076826</t>
-  </si>
-  <si>
-    <t>ALFREDO LUIS CUELLO BOSSA</t>
-  </si>
-  <si>
-    <t>1047418613</t>
-  </si>
-  <si>
-    <t>YEMENSON PATERNINA TEHERAN</t>
-  </si>
-  <si>
-    <t>1047452849</t>
-  </si>
-  <si>
-    <t>PEDRO ANDRES LUNA GARCIA</t>
-  </si>
-  <si>
-    <t>1143401809</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE ALMEIDA CABARCAS</t>
-  </si>
-  <si>
-    <t>73141609</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO ESTRADA TAMARA</t>
-  </si>
-  <si>
-    <t>1050946780</t>
-  </si>
-  <si>
-    <t>HENRY DAVID MORENO JULIO</t>
-  </si>
-  <si>
-    <t>1143380612</t>
-  </si>
-  <si>
-    <t>KENLLY PAOLA MARTINEZ MORALES</t>
-  </si>
-  <si>
-    <t>45469553</t>
-  </si>
-  <si>
-    <t>MARGARITA EUGENIA TORRES BLANCO</t>
-  </si>
-  <si>
-    <t>45532902</t>
-  </si>
-  <si>
-    <t>SISSY EMPERATRIZ ALGARIN MENDOZA</t>
-  </si>
-  <si>
-    <t>22456953</t>
-  </si>
-  <si>
-    <t>ANA ISABEL ROSAS MOLINA</t>
-  </si>
-  <si>
-    <t>1143364084</t>
-  </si>
-  <si>
-    <t>JORDYS DE JESÚS SINMING GÓMEZ</t>
-  </si>
-  <si>
-    <t>73106139</t>
-  </si>
-  <si>
-    <t>JULIO CESAR ARCINIEGAS LOPEZ</t>
-  </si>
-  <si>
-    <t>33205126</t>
-  </si>
-  <si>
-    <t>MARELVI CELEDONIA FERIA ACUÑA</t>
-  </si>
-  <si>
-    <t>1143343096</t>
-  </si>
-  <si>
-    <t>JULIETH LISSETH LABARCES ACOSTA</t>
-  </si>
-  <si>
-    <t>73129874</t>
-  </si>
-  <si>
-    <t>JOSE FERNANDO FRIAS HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1143354593</t>
-  </si>
-  <si>
-    <t>LIZETH PEREZ FRANCO</t>
-  </si>
-  <si>
-    <t>1143359183</t>
-  </si>
-  <si>
-    <t>NICOLAS DAVID RIOS NAVARRO</t>
-  </si>
-  <si>
-    <t>1001898664</t>
-  </si>
-  <si>
-    <t>ZURY ZARAY ROJAS GOMEZ</t>
-  </si>
-  <si>
-    <t>73110176</t>
-  </si>
-  <si>
-    <t>JOSE LUIS ARZUZA JIMENEZ</t>
-  </si>
-  <si>
-    <t>1047405776</t>
-  </si>
-  <si>
-    <t>ANDY CANTILLO TORRES</t>
-  </si>
-  <si>
-    <t>64500244</t>
-  </si>
-  <si>
-    <t>DIANA PATRICIA LUNA QUIROZ</t>
-  </si>
-  <si>
     <t>78709818</t>
   </si>
   <si>
     <t>DOMINGO MOISES MILANES SUAREZ</t>
-  </si>
-  <si>
-    <t>1003061295</t>
-  </si>
-  <si>
-    <t>LUIS DAVID GUERRA PATRON</t>
-  </si>
-  <si>
-    <t>1007276897</t>
-  </si>
-  <si>
-    <t>YURIS MARCELA RUIZ LOPEZ</t>
-  </si>
-  <si>
-    <t>45690396</t>
-  </si>
-  <si>
-    <t>YENIS DEL CARMEN TORRES ACOSTA</t>
-  </si>
-  <si>
-    <t>1047393662</t>
-  </si>
-  <si>
-    <t>YESID ALEJANDRO GALVIZ GARCIA</t>
-  </si>
-  <si>
-    <t>73131868</t>
-  </si>
-  <si>
-    <t>CARLOS JESUS LORDUY ROMAN</t>
-  </si>
-  <si>
-    <t>1143348658</t>
-  </si>
-  <si>
-    <t>KAREN PAOLA RUEDA HERAZO</t>
-  </si>
-  <si>
-    <t>45496778</t>
-  </si>
-  <si>
-    <t>MARELBI MIRANDA MARRUGO</t>
-  </si>
-  <si>
-    <t>1007401962</t>
-  </si>
-  <si>
-    <t>JEFERSON RECUERO MORELO</t>
-  </si>
-  <si>
-    <t>73229157</t>
-  </si>
-  <si>
-    <t>ALVARO JOSE POTES VILLALBA</t>
-  </si>
-  <si>
-    <t>45484804</t>
-  </si>
-  <si>
-    <t>LUBIEL DEL CARMEN VILLA SILGADO</t>
-  </si>
-  <si>
-    <t>18009698</t>
-  </si>
-  <si>
-    <t>NALLYD CARDONA ATENCIO</t>
-  </si>
-  <si>
-    <t>45761000</t>
-  </si>
-  <si>
-    <t>ELA CECILIA OSORIO ESPINOSA</t>
-  </si>
-  <si>
-    <t>1143346805</t>
-  </si>
-  <si>
-    <t>ERICK AREVALO TORRES</t>
-  </si>
-  <si>
-    <t>1143332224</t>
-  </si>
-  <si>
-    <t>MARIA DE LOS ANGELES CASTILLO CARRILLO</t>
-  </si>
-  <si>
-    <t>9147760</t>
-  </si>
-  <si>
-    <t>ARIEL ANTONIO CARDALES RONCO</t>
-  </si>
-  <si>
-    <t>1067922403</t>
-  </si>
-  <si>
-    <t>JESUS CONTRERAS BERNAL</t>
-  </si>
-  <si>
-    <t>73111654</t>
-  </si>
-  <si>
-    <t>ALBERTO JOSE FLOREZ ESPINOSA</t>
-  </si>
-  <si>
-    <t>30775809</t>
-  </si>
-  <si>
-    <t>SORAYA FIGUEROA VILLAMIL</t>
-  </si>
-  <si>
-    <t>45529526</t>
-  </si>
-  <si>
-    <t>HEIDI CAROLINA OLASCUAGA URRIOLA</t>
-  </si>
-  <si>
-    <t>1151448637</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL CASTRO ALVAREZ</t>
-  </si>
-  <si>
-    <t>51898690</t>
-  </si>
-  <si>
-    <t>MARCELA MUNAR GONZALEZ</t>
-  </si>
-  <si>
-    <t>1050967283</t>
-  </si>
-  <si>
-    <t>WENDY JOHANA PAJARO ROMERO</t>
-  </si>
-  <si>
-    <t>7920453</t>
-  </si>
-  <si>
-    <t>ANTONIO CORDOBA CORREA</t>
-  </si>
-  <si>
-    <t>9294973</t>
-  </si>
-  <si>
-    <t>ELIAS AHUMEDO ZAMORA</t>
-  </si>
-  <si>
-    <t>1143335470</t>
-  </si>
-  <si>
-    <t>DEIBY ALONSO CARRASCAL AGUIRRE</t>
-  </si>
-  <si>
-    <t>1047472893</t>
-  </si>
-  <si>
-    <t>YOER JOSE FLOREZ SILGADO</t>
-  </si>
-  <si>
-    <t>1047452800</t>
-  </si>
-  <si>
-    <t>EDUARDO JOSE MARTINEZ DAVILA</t>
-  </si>
-  <si>
-    <t>9288350</t>
-  </si>
-  <si>
-    <t>MILTON MANUEL SANTIA PAJARO PUELLO</t>
-  </si>
-  <si>
-    <t>73110089</t>
-  </si>
-  <si>
-    <t>GILBERTO CHICO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1104701506</t>
-  </si>
-  <si>
-    <t>MARGARITA MARIA PARRA MENDOZA</t>
-  </si>
-  <si>
-    <t>73137090</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE ASHOOK CALDERIN</t>
-  </si>
-  <si>
-    <t>1050970387</t>
-  </si>
-  <si>
-    <t>WENDY DEVOZ CASTILLO</t>
-  </si>
-  <si>
-    <t>1712</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -917,7 +917,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD089B84-159A-2320-AAE2-66FBECF188B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA9B34-26FA-845D-B93D-3C757C9DC2E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6DE462-689B-4C69-9A52-CD128029EEE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCE14DE-F7FD-464E-8D9E-34DDD75A804C}">
   <dimension ref="B2:J164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1446,10 +1446,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36000</v>
+        <v>35192</v>
       </c>
       <c r="G16" s="18">
-        <v>900000</v>
+        <v>879800</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1469,10 +1469,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36000</v>
+        <v>35192</v>
       </c>
       <c r="G17" s="18">
-        <v>900000</v>
+        <v>879800</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1483,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1506,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1529,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>36000</v>
+        <v>72080</v>
       </c>
       <c r="G20" s="18">
-        <v>900000</v>
+        <v>1802000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1552,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F21" s="18">
-        <v>36000</v>
+        <v>72080</v>
       </c>
       <c r="G21" s="18">
-        <v>900000</v>
+        <v>1802000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1575,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>36000</v>
+        <v>64200</v>
       </c>
       <c r="G22" s="18">
-        <v>900000</v>
+        <v>1605000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1598,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
-        <v>36000</v>
+        <v>64200</v>
       </c>
       <c r="G23" s="18">
-        <v>900000</v>
+        <v>1605000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1627,13 +1627,13 @@
         <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>61334</v>
+        <v>39856</v>
       </c>
       <c r="G24" s="18">
-        <v>2000000</v>
+        <v>996400</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1650,13 +1650,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>39856</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>996400</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1667,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="G26" s="18">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1690,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F27" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G27" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1713,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G28" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1736,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>32000</v>
+        <v>36000</v>
       </c>
       <c r="G29" s="18">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1759,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>31800</v>
+        <v>36000</v>
       </c>
       <c r="G30" s="18">
-        <v>795000</v>
+        <v>900000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1782,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>31800</v>
+        <v>36000</v>
       </c>
       <c r="G31" s="18">
-        <v>795000</v>
+        <v>900000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1805,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>63600</v>
+        <v>36000</v>
       </c>
       <c r="G32" s="18">
-        <v>1590000</v>
+        <v>900000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1828,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>36040</v>
+        <v>36000</v>
       </c>
       <c r="G33" s="18">
-        <v>901000</v>
+        <v>900000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1851,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>29520</v>
       </c>
       <c r="G34" s="18">
-        <v>738000</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1874,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
-        <v>39432</v>
+        <v>29520</v>
       </c>
       <c r="G35" s="18">
-        <v>985800</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1897,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G36" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1920,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
-        <v>36000</v>
+        <v>31800</v>
       </c>
       <c r="G37" s="18">
-        <v>900000</v>
+        <v>795000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1943,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G38" s="18">
-        <v>738000</v>
+        <v>954000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1966,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F39" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G39" s="18">
-        <v>738000</v>
+        <v>954000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1989,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
-        <v>31291</v>
+        <v>38160</v>
       </c>
       <c r="G40" s="18">
-        <v>782280</v>
+        <v>954000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2012,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F41" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G41" s="18">
-        <v>738000</v>
+        <v>954000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2035,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G42" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2058,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G43" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2081,19 +2081,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>38160</v>
+        <v>93280</v>
       </c>
       <c r="G44" s="18">
-        <v>954000</v>
+        <v>2332000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2104,19 +2104,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>38160</v>
+        <v>93280</v>
       </c>
       <c r="G45" s="18">
-        <v>954000</v>
+        <v>2332000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2127,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>63600</v>
+        <v>36000</v>
       </c>
       <c r="G46" s="18">
-        <v>1590000</v>
+        <v>900000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2150,19 +2150,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F47" s="18">
-        <v>69960</v>
+        <v>36000</v>
       </c>
       <c r="G47" s="18">
-        <v>1749000</v>
+        <v>900000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2173,19 +2173,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18">
-        <v>29520</v>
+        <v>169600</v>
       </c>
       <c r="G48" s="18">
-        <v>738000</v>
+        <v>4240000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2196,19 +2196,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F49" s="18">
-        <v>29520</v>
+        <v>169600</v>
       </c>
       <c r="G49" s="18">
-        <v>738000</v>
+        <v>4240000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2219,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18">
         <v>29520</v>
@@ -2242,19 +2242,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F51" s="18">
-        <v>148400</v>
+        <v>29520</v>
       </c>
       <c r="G51" s="18">
-        <v>3710000</v>
+        <v>738000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2265,19 +2265,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G52" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2288,19 +2288,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F53" s="18">
-        <v>80000</v>
+        <v>31800</v>
       </c>
       <c r="G53" s="18">
-        <v>2000000</v>
+        <v>795000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2311,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F54" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G54" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2334,19 +2334,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F55" s="18">
-        <v>32000</v>
+        <v>36040</v>
       </c>
       <c r="G55" s="18">
-        <v>800000</v>
+        <v>901000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2357,19 +2357,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>31800</v>
+        <v>36040</v>
       </c>
       <c r="G56" s="18">
-        <v>795000</v>
+        <v>901000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2380,19 +2380,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
-        <v>36000</v>
+        <v>36040</v>
       </c>
       <c r="G57" s="18">
-        <v>900000</v>
+        <v>901000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2403,19 +2403,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G58" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2426,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>38160</v>
       </c>
       <c r="G59" s="18">
-        <v>1000000</v>
+        <v>954000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2449,19 +2449,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
-        <v>29520</v>
+        <v>50880</v>
       </c>
       <c r="G60" s="18">
-        <v>738000</v>
+        <v>1272000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2472,19 +2472,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F61" s="18">
-        <v>48000</v>
+        <v>50880</v>
       </c>
       <c r="G61" s="18">
-        <v>1200000</v>
+        <v>1272000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2495,19 +2495,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
-        <v>64200</v>
+        <v>148400</v>
       </c>
       <c r="G62" s="18">
-        <v>1605000</v>
+        <v>3710000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2518,19 +2518,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F63" s="18">
-        <v>29520</v>
+        <v>148400</v>
       </c>
       <c r="G63" s="18">
-        <v>738000</v>
+        <v>3710000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2541,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18">
-        <v>31800</v>
+        <v>169600</v>
       </c>
       <c r="G64" s="18">
-        <v>795000</v>
+        <v>4240000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2564,19 +2564,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F65" s="18">
-        <v>37312</v>
+        <v>169600</v>
       </c>
       <c r="G65" s="18">
-        <v>932800</v>
+        <v>4240000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2587,19 +2587,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F66" s="18">
-        <v>36040</v>
+        <v>32000</v>
       </c>
       <c r="G66" s="18">
-        <v>901000</v>
+        <v>800000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2610,19 +2610,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F67" s="18">
-        <v>29520</v>
+        <v>32000</v>
       </c>
       <c r="G67" s="18">
-        <v>738000</v>
+        <v>800000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2633,19 +2633,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F68" s="18">
-        <v>38160</v>
+        <v>29520</v>
       </c>
       <c r="G68" s="18">
-        <v>954000</v>
+        <v>738000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2656,19 +2656,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F69" s="18">
-        <v>35192</v>
+        <v>29520</v>
       </c>
       <c r="G69" s="18">
-        <v>879800</v>
+        <v>738000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2679,19 +2679,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G70" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2702,19 +2702,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F71" s="18">
-        <v>169600</v>
+        <v>29520</v>
       </c>
       <c r="G71" s="18">
-        <v>4240000</v>
+        <v>738000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2725,19 +2725,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F72" s="18">
-        <v>31800</v>
+        <v>37312</v>
       </c>
       <c r="G72" s="18">
-        <v>795000</v>
+        <v>932800</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2748,19 +2748,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F73" s="18">
-        <v>38160</v>
+        <v>37312</v>
       </c>
       <c r="G73" s="18">
-        <v>954000</v>
+        <v>932800</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2771,19 +2771,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F74" s="18">
-        <v>31800</v>
+        <v>31291</v>
       </c>
       <c r="G74" s="18">
-        <v>795000</v>
+        <v>782280</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2794,19 +2794,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F75" s="18">
-        <v>29520</v>
+        <v>31291</v>
       </c>
       <c r="G75" s="18">
-        <v>738000</v>
+        <v>782280</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2817,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>29520</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>738000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2840,13 +2840,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F77" s="18">
         <v>29520</v>
@@ -2863,19 +2863,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F78" s="18">
-        <v>72080</v>
+        <v>32000</v>
       </c>
       <c r="G78" s="18">
-        <v>1802000</v>
+        <v>800000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2886,19 +2886,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F79" s="18">
-        <v>29520</v>
+        <v>32000</v>
       </c>
       <c r="G79" s="18">
-        <v>738000</v>
+        <v>800000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2909,13 +2909,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F80" s="18">
         <v>29520</v>
@@ -2932,19 +2932,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F81" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G81" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2955,19 +2955,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F82" s="18">
-        <v>93280</v>
+        <v>69960</v>
       </c>
       <c r="G82" s="18">
-        <v>2332000</v>
+        <v>1749000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2978,19 +2978,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F83" s="18">
-        <v>169600</v>
+        <v>69960</v>
       </c>
       <c r="G83" s="18">
-        <v>4240000</v>
+        <v>1749000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3001,19 +3001,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G84" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3024,19 +3024,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F85" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G85" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3047,19 +3047,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
-        <v>29520</v>
+        <v>63600</v>
       </c>
       <c r="G86" s="18">
-        <v>738000</v>
+        <v>1590000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3070,19 +3070,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F87" s="18">
-        <v>39856</v>
+        <v>63600</v>
       </c>
       <c r="G87" s="18">
-        <v>996400</v>
+        <v>1590000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3093,19 +3093,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F88" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G88" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3116,19 +3116,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F89" s="18">
-        <v>63600</v>
+        <v>29520</v>
       </c>
       <c r="G89" s="18">
-        <v>1590000</v>
+        <v>738000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3139,19 +3139,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F90" s="18">
-        <v>80000</v>
+        <v>29520</v>
       </c>
       <c r="G90" s="18">
-        <v>2000000</v>
+        <v>738000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3162,19 +3162,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F91" s="18">
-        <v>50880</v>
+        <v>29520</v>
       </c>
       <c r="G91" s="18">
-        <v>1272000</v>
+        <v>738000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3185,19 +3185,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F92" s="18">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="G92" s="18">
-        <v>800000</v>
+        <v>795000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3208,19 +3208,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F93" s="18">
-        <v>38160</v>
+        <v>31800</v>
       </c>
       <c r="G93" s="18">
-        <v>954000</v>
+        <v>795000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3231,19 +3231,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F94" s="18">
-        <v>93280</v>
+        <v>29520</v>
       </c>
       <c r="G94" s="18">
-        <v>2332000</v>
+        <v>738000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3254,19 +3254,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F95" s="18">
-        <v>31291</v>
+        <v>29520</v>
       </c>
       <c r="G95" s="18">
-        <v>782280</v>
+        <v>738000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3277,19 +3277,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F96" s="18">
-        <v>63600</v>
+        <v>31800</v>
       </c>
       <c r="G96" s="18">
-        <v>1590000</v>
+        <v>795000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3300,19 +3300,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F97" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G97" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3323,19 +3323,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="G98" s="18">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3346,19 +3346,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F99" s="18">
-        <v>31800</v>
+        <v>80000</v>
       </c>
       <c r="G99" s="18">
-        <v>795000</v>
+        <v>2000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3369,19 +3369,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F100" s="18">
-        <v>31800</v>
+        <v>39432</v>
       </c>
       <c r="G100" s="18">
-        <v>795000</v>
+        <v>985800</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3392,19 +3392,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F101" s="18">
-        <v>80000</v>
+        <v>39432</v>
       </c>
       <c r="G101" s="18">
-        <v>2000000</v>
+        <v>985800</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3415,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F102" s="18">
         <v>29520</v>
@@ -3438,13 +3438,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F103" s="18">
         <v>29520</v>
@@ -3461,19 +3461,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F104" s="18">
-        <v>48000</v>
+        <v>31800</v>
       </c>
       <c r="G104" s="18">
-        <v>1200000</v>
+        <v>795000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3484,19 +3484,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F105" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G105" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3507,13 +3507,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F106" s="18">
         <v>31800</v>
@@ -3530,19 +3530,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F107" s="18">
-        <v>69960</v>
+        <v>31800</v>
       </c>
       <c r="G107" s="18">
-        <v>1749000</v>
+        <v>795000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3553,19 +3553,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F108" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G108" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3576,19 +3576,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F109" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G109" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3599,19 +3599,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F110" s="18">
-        <v>36040</v>
+        <v>36000</v>
       </c>
       <c r="G110" s="18">
-        <v>901000</v>
+        <v>900000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3622,19 +3622,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F111" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G111" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3645,13 +3645,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F112" s="18">
         <v>29520</v>
@@ -3668,19 +3668,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F113" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G113" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3691,19 +3691,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F114" s="18">
-        <v>80000</v>
+        <v>63600</v>
       </c>
       <c r="G114" s="18">
-        <v>2000000</v>
+        <v>1590000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3714,19 +3714,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F115" s="18">
-        <v>29520</v>
+        <v>63600</v>
       </c>
       <c r="G115" s="18">
-        <v>738000</v>
+        <v>1590000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3737,19 +3737,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F116" s="18">
-        <v>39432</v>
+        <v>29520</v>
       </c>
       <c r="G116" s="18">
-        <v>985800</v>
+        <v>738000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3760,19 +3760,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F117" s="18">
-        <v>50880</v>
+        <v>29520</v>
       </c>
       <c r="G117" s="18">
-        <v>1272000</v>
+        <v>738000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3783,19 +3783,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F118" s="18">
-        <v>72080</v>
+        <v>29520</v>
       </c>
       <c r="G118" s="18">
-        <v>1802000</v>
+        <v>738000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3806,19 +3806,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F119" s="18">
-        <v>40000</v>
+        <v>29520</v>
       </c>
       <c r="G119" s="18">
-        <v>1000000</v>
+        <v>738000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3829,19 +3829,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F120" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G120" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3852,19 +3852,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F121" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G121" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3875,19 +3875,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F122" s="18">
-        <v>36000</v>
+        <v>48000</v>
       </c>
       <c r="G122" s="18">
-        <v>900000</v>
+        <v>1200000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3898,19 +3898,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F123" s="18">
-        <v>29520</v>
+        <v>48000</v>
       </c>
       <c r="G123" s="18">
-        <v>738000</v>
+        <v>1200000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3921,19 +3921,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F124" s="18">
-        <v>169600</v>
+        <v>29520</v>
       </c>
       <c r="G124" s="18">
-        <v>4240000</v>
+        <v>738000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3944,13 +3944,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F125" s="18">
         <v>29520</v>
@@ -3967,19 +3967,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F126" s="18">
-        <v>31800</v>
+        <v>63600</v>
       </c>
       <c r="G126" s="18">
-        <v>795000</v>
+        <v>1590000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3990,19 +3990,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F127" s="18">
-        <v>32000</v>
+        <v>63600</v>
       </c>
       <c r="G127" s="18">
-        <v>800000</v>
+        <v>1590000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4013,19 +4013,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F128" s="18">
-        <v>38160</v>
+        <v>31800</v>
       </c>
       <c r="G128" s="18">
-        <v>954000</v>
+        <v>795000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4036,19 +4036,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F129" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G129" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -4059,19 +4059,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F130" s="18">
-        <v>63600</v>
+        <v>36040</v>
       </c>
       <c r="G130" s="18">
-        <v>1590000</v>
+        <v>901000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4082,19 +4082,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F131" s="18">
-        <v>31800</v>
+        <v>36040</v>
       </c>
       <c r="G131" s="18">
-        <v>795000</v>
+        <v>901000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4105,13 +4105,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F132" s="18">
         <v>38160</v>
@@ -4134,13 +4134,13 @@
         <v>130</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F133" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G133" s="18">
-        <v>738000</v>
+        <v>954000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4151,19 +4151,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F134" s="18">
-        <v>63600</v>
+        <v>29520</v>
       </c>
       <c r="G134" s="18">
-        <v>1590000</v>
+        <v>738000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4174,13 +4174,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F135" s="18">
         <v>29520</v>
@@ -4197,19 +4197,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F136" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G136" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4220,19 +4220,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F137" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G137" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4243,19 +4243,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F138" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G138" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4266,19 +4266,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F139" s="18">
-        <v>39856</v>
+        <v>31800</v>
       </c>
       <c r="G139" s="18">
-        <v>996400</v>
+        <v>795000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4289,13 +4289,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F140" s="18">
         <v>29520</v>
@@ -4312,19 +4312,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F141" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G141" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4335,19 +4335,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F142" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G142" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4358,19 +4358,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F143" s="18">
-        <v>35192</v>
+        <v>29520</v>
       </c>
       <c r="G143" s="18">
-        <v>879800</v>
+        <v>738000</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4381,19 +4381,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F144" s="18">
-        <v>64200</v>
+        <v>29520</v>
       </c>
       <c r="G144" s="18">
-        <v>1605000</v>
+        <v>738000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4404,19 +4404,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F145" s="18">
-        <v>38160</v>
+        <v>29520</v>
       </c>
       <c r="G145" s="18">
-        <v>954000</v>
+        <v>738000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4427,19 +4427,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F146" s="18">
-        <v>40000</v>
+        <v>29520</v>
       </c>
       <c r="G146" s="18">
-        <v>1000000</v>
+        <v>738000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4450,19 +4450,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F147" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G147" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4473,19 +4473,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F148" s="18">
-        <v>29520</v>
+        <v>32000</v>
       </c>
       <c r="G148" s="18">
-        <v>738000</v>
+        <v>800000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4496,19 +4496,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F149" s="18">
-        <v>29520</v>
+        <v>32000</v>
       </c>
       <c r="G149" s="18">
-        <v>738000</v>
+        <v>800000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4519,19 +4519,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F150" s="18">
-        <v>37312</v>
+        <v>32000</v>
       </c>
       <c r="G150" s="18">
-        <v>932800</v>
+        <v>800000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4542,19 +4542,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F151" s="18">
-        <v>148400</v>
+        <v>32000</v>
       </c>
       <c r="G151" s="18">
-        <v>3710000</v>
+        <v>800000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4565,19 +4565,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F152" s="18">
-        <v>32000</v>
+        <v>80000</v>
       </c>
       <c r="G152" s="18">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4588,19 +4588,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F153" s="18">
-        <v>29520</v>
+        <v>80000</v>
       </c>
       <c r="G153" s="18">
-        <v>738000</v>
+        <v>2000000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4611,19 +4611,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F154" s="18">
-        <v>169600</v>
+        <v>80000</v>
       </c>
       <c r="G154" s="18">
-        <v>4240000</v>
+        <v>2000000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4634,19 +4634,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F155" s="18">
-        <v>29520</v>
+        <v>80000</v>
       </c>
       <c r="G155" s="18">
-        <v>738000</v>
+        <v>2000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4657,19 +4657,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F156" s="18">
-        <v>29520</v>
+        <v>61334</v>
       </c>
       <c r="G156" s="18">
-        <v>738000</v>
+        <v>2000000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4680,19 +4680,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="F157" s="18">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4703,19 +4703,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="D158" s="23" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="F158" s="24">
-        <v>29520</v>
+        <v>40000</v>
       </c>
       <c r="G158" s="24">
-        <v>738000</v>
+        <v>1000000</v>
       </c>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>

--- a/Data/EC/NIT-8904010673.xlsx
+++ b/Data/EC/NIT-8904010673.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF301AB3-414C-4942-8FAA-A021F62037AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BDFDE4B-88A8-4158-A5EE-98315C4E7492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{43D22E1C-3B3A-4E00-A266-6C89C5752D2F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{303D7B77-DE8D-426C-AC3F-A4E40B7CE304}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,445 +65,445 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73117098</t>
+  </si>
+  <si>
+    <t>BERNARDO FEDERICO DE LEON VARGAS</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1102856766</t>
+  </si>
+  <si>
+    <t>ANGIE JOHANNA FUENTES ANGARITA</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>45484804</t>
   </si>
   <si>
     <t>LUBIEL DEL CARMEN VILLA SILGADO</t>
   </si>
   <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>73111654</t>
+  </si>
+  <si>
+    <t>ALBERTO JOSE FLOREZ ESPINOSA</t>
+  </si>
+  <si>
+    <t>45529526</t>
+  </si>
+  <si>
+    <t>HEIDI CAROLINA OLASCUAGA URRIOLA</t>
+  </si>
+  <si>
+    <t>45690396</t>
+  </si>
+  <si>
+    <t>YENIS DEL CARMEN TORRES ACOSTA</t>
+  </si>
+  <si>
+    <t>9288350</t>
+  </si>
+  <si>
+    <t>MILTON MANUEL SANTIA PAJARO PUELLO</t>
+  </si>
+  <si>
+    <t>1047393662</t>
+  </si>
+  <si>
+    <t>YESID ALEJANDRO GALVIZ GARCIA</t>
+  </si>
+  <si>
+    <t>9147760</t>
+  </si>
+  <si>
+    <t>ARIEL ANTONIO CARDALES RONCO</t>
+  </si>
+  <si>
+    <t>45469553</t>
+  </si>
+  <si>
+    <t>MARGARITA EUGENIA TORRES BLANCO</t>
+  </si>
+  <si>
+    <t>73229157</t>
+  </si>
+  <si>
+    <t>ALVARO JOSE POTES VILLALBA</t>
+  </si>
+  <si>
+    <t>1047472893</t>
+  </si>
+  <si>
+    <t>YOER JOSE FLOREZ SILGADO</t>
+  </si>
+  <si>
+    <t>7920453</t>
+  </si>
+  <si>
+    <t>ANTONIO CORDOBA CORREA</t>
+  </si>
+  <si>
+    <t>64500244</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA LUNA QUIROZ</t>
+  </si>
+  <si>
+    <t>9294973</t>
+  </si>
+  <si>
+    <t>ELIAS AHUMEDO ZAMORA</t>
+  </si>
+  <si>
+    <t>73129874</t>
+  </si>
+  <si>
+    <t>JOSE FERNANDO FRIAS HERNANDEZ</t>
+  </si>
+  <si>
+    <t>73131868</t>
+  </si>
+  <si>
+    <t>CARLOS JESUS LORDUY ROMAN</t>
+  </si>
+  <si>
+    <t>73141609</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO ESTRADA TAMARA</t>
+  </si>
+  <si>
+    <t>1050946780</t>
+  </si>
+  <si>
+    <t>HENRY DAVID MORENO JULIO</t>
+  </si>
+  <si>
+    <t>1143332224</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES CASTILLO CARRILLO</t>
+  </si>
+  <si>
+    <t>73137090</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE ASHOOK CALDERIN</t>
+  </si>
+  <si>
+    <t>1143343096</t>
+  </si>
+  <si>
+    <t>JULIETH LISSETH LABARCES ACOSTA</t>
+  </si>
+  <si>
+    <t>45761000</t>
+  </si>
+  <si>
+    <t>ELA CECILIA OSORIO ESPINOSA</t>
+  </si>
+  <si>
+    <t>18009698</t>
+  </si>
+  <si>
+    <t>NALLYD CARDONA ATENCIO</t>
+  </si>
+  <si>
+    <t>78076826</t>
+  </si>
+  <si>
+    <t>ALFREDO LUIS CUELLO BOSSA</t>
+  </si>
+  <si>
+    <t>33205126</t>
+  </si>
+  <si>
+    <t>MARELVI CELEDONIA FERIA ACUÑA</t>
+  </si>
+  <si>
+    <t>1143348658</t>
+  </si>
+  <si>
+    <t>KAREN PAOLA RUEDA HERAZO</t>
+  </si>
+  <si>
+    <t>1047452849</t>
+  </si>
+  <si>
+    <t>PEDRO ANDRES LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>30775809</t>
+  </si>
+  <si>
+    <t>SORAYA FIGUEROA VILLAMIL</t>
+  </si>
+  <si>
+    <t>73189750</t>
+  </si>
+  <si>
+    <t>ALEXANDER PASSO MORENO</t>
+  </si>
+  <si>
+    <t>43991455</t>
+  </si>
+  <si>
+    <t>HEIDY TATIANA GONZALEZ OCAMPO</t>
+  </si>
+  <si>
+    <t>22456953</t>
+  </si>
+  <si>
+    <t>ANA ISABEL ROSAS MOLINA</t>
+  </si>
+  <si>
+    <t>9111759</t>
+  </si>
+  <si>
+    <t>ELEAZAR HERNANDEZ MONTES</t>
+  </si>
+  <si>
+    <t>45532902</t>
+  </si>
+  <si>
+    <t>SISSY EMPERATRIZ ALGARIN MENDOZA</t>
+  </si>
+  <si>
+    <t>1047452800</t>
+  </si>
+  <si>
+    <t>EDUARDO JOSE MARTINEZ DAVILA</t>
+  </si>
+  <si>
+    <t>1047418613</t>
+  </si>
+  <si>
+    <t>YEMENSON PATERNINA TEHERAN</t>
+  </si>
+  <si>
+    <t>73110176</t>
+  </si>
+  <si>
+    <t>JOSE LUIS ARZUZA JIMENEZ</t>
+  </si>
+  <si>
+    <t>51898690</t>
+  </si>
+  <si>
+    <t>MARCELA MUNAR GONZALEZ</t>
+  </si>
+  <si>
+    <t>3894469</t>
+  </si>
+  <si>
+    <t>OSBALDO BLANCO TERAN</t>
+  </si>
+  <si>
+    <t>1143354593</t>
+  </si>
+  <si>
+    <t>LIZETH PEREZ FRANCO</t>
+  </si>
+  <si>
+    <t>22804672</t>
+  </si>
+  <si>
+    <t>MERLY DEL CARMEN CAICEDO ARZUZA</t>
+  </si>
+  <si>
+    <t>1007401962</t>
+  </si>
+  <si>
+    <t>JEFERSON RECUERO MORELO</t>
+  </si>
+  <si>
+    <t>9096829</t>
+  </si>
+  <si>
+    <t>DONACYTER MARSIGLIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>73110089</t>
+  </si>
+  <si>
+    <t>GILBERTO CHICO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1143335470</t>
+  </si>
+  <si>
+    <t>DEIBY ALONSO CARRASCAL AGUIRRE</t>
+  </si>
+  <si>
+    <t>1047405776</t>
+  </si>
+  <si>
+    <t>ANDY CANTILLO TORRES</t>
+  </si>
+  <si>
+    <t>1143401809</t>
+  </si>
+  <si>
+    <t>ANDRES FELIPE ALMEIDA CABARCAS</t>
+  </si>
+  <si>
+    <t>1104701506</t>
+  </si>
+  <si>
+    <t>MARGARITA MARIA PARRA MENDOZA</t>
+  </si>
+  <si>
+    <t>1047403516</t>
+  </si>
+  <si>
+    <t>LUISA FERNANDA CORRALES PEREZ</t>
+  </si>
+  <si>
+    <t>1143363058</t>
+  </si>
+  <si>
+    <t>HAROLD ENRIQUE MAZA JULIO</t>
+  </si>
+  <si>
+    <t>1128058560</t>
+  </si>
+  <si>
+    <t>ALEX JESUS HERNANDEZ BARRERA</t>
+  </si>
+  <si>
+    <t>1007276897</t>
+  </si>
+  <si>
+    <t>YURIS MARCELA RUIZ LOPEZ</t>
+  </si>
+  <si>
+    <t>73106139</t>
+  </si>
+  <si>
+    <t>JULIO CESAR ARCINIEGAS LOPEZ</t>
+  </si>
+  <si>
+    <t>73008307</t>
+  </si>
+  <si>
+    <t>WILSON ANDRES FERRER SUAREZ</t>
+  </si>
+  <si>
+    <t>1143346805</t>
+  </si>
+  <si>
+    <t>ERICK AREVALO TORRES</t>
+  </si>
+  <si>
+    <t>45496778</t>
+  </si>
+  <si>
+    <t>MARELBI MIRANDA MARRUGO</t>
+  </si>
+  <si>
+    <t>1143380612</t>
+  </si>
+  <si>
+    <t>KENLLY PAOLA MARTINEZ MORALES</t>
+  </si>
+  <si>
+    <t>1067922403</t>
+  </si>
+  <si>
+    <t>JESUS CONTRERAS BERNAL</t>
+  </si>
+  <si>
+    <t>1143359183</t>
+  </si>
+  <si>
+    <t>NICOLAS DAVID RIOS NAVARRO</t>
+  </si>
+  <si>
+    <t>1050967283</t>
+  </si>
+  <si>
+    <t>WENDY JOHANA PAJARO ROMERO</t>
+  </si>
+  <si>
+    <t>1003061295</t>
+  </si>
+  <si>
+    <t>LUIS DAVID GUERRA PATRON</t>
+  </si>
+  <si>
+    <t>1143398622</t>
+  </si>
+  <si>
+    <t>VALENTIN HENAO GIRALDO</t>
+  </si>
+  <si>
+    <t>1151448637</t>
+  </si>
+  <si>
+    <t>JOSE MIGUEL CASTRO ALVAREZ</t>
+  </si>
+  <si>
+    <t>1143364084</t>
+  </si>
+  <si>
+    <t>JORDYS DE JESÚS SINMING GÓMEZ</t>
+  </si>
+  <si>
+    <t>1001898664</t>
+  </si>
+  <si>
+    <t>ZURY ZARAY ROJAS GOMEZ</t>
+  </si>
+  <si>
+    <t>1050970387</t>
+  </si>
+  <si>
+    <t>WENDY DEVOZ CASTILLO</t>
+  </si>
+  <si>
+    <t>78709818</t>
+  </si>
+  <si>
+    <t>DOMINGO MOISES MILANES SUAREZ</t>
+  </si>
+  <si>
     <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>73111654</t>
-  </si>
-  <si>
-    <t>ALBERTO JOSE FLOREZ ESPINOSA</t>
-  </si>
-  <si>
-    <t>45529526</t>
-  </si>
-  <si>
-    <t>HEIDI CAROLINA OLASCUAGA URRIOLA</t>
-  </si>
-  <si>
-    <t>45690396</t>
-  </si>
-  <si>
-    <t>YENIS DEL CARMEN TORRES ACOSTA</t>
-  </si>
-  <si>
-    <t>9288350</t>
-  </si>
-  <si>
-    <t>MILTON MANUEL SANTIA PAJARO PUELLO</t>
-  </si>
-  <si>
-    <t>73117098</t>
-  </si>
-  <si>
-    <t>BERNARDO FEDERICO DE LEON VARGAS</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1047393662</t>
-  </si>
-  <si>
-    <t>YESID ALEJANDRO GALVIZ GARCIA</t>
-  </si>
-  <si>
-    <t>9147760</t>
-  </si>
-  <si>
-    <t>ARIEL ANTONIO CARDALES RONCO</t>
-  </si>
-  <si>
-    <t>45469553</t>
-  </si>
-  <si>
-    <t>MARGARITA EUGENIA TORRES BLANCO</t>
-  </si>
-  <si>
-    <t>73229157</t>
-  </si>
-  <si>
-    <t>ALVARO JOSE POTES VILLALBA</t>
-  </si>
-  <si>
-    <t>1047472893</t>
-  </si>
-  <si>
-    <t>YOER JOSE FLOREZ SILGADO</t>
-  </si>
-  <si>
-    <t>7920453</t>
-  </si>
-  <si>
-    <t>ANTONIO CORDOBA CORREA</t>
-  </si>
-  <si>
-    <t>64500244</t>
-  </si>
-  <si>
-    <t>DIANA PATRICIA LUNA QUIROZ</t>
-  </si>
-  <si>
-    <t>9294973</t>
-  </si>
-  <si>
-    <t>ELIAS AHUMEDO ZAMORA</t>
-  </si>
-  <si>
-    <t>73129874</t>
-  </si>
-  <si>
-    <t>JOSE FERNANDO FRIAS HERNANDEZ</t>
-  </si>
-  <si>
-    <t>73131868</t>
-  </si>
-  <si>
-    <t>CARLOS JESUS LORDUY ROMAN</t>
-  </si>
-  <si>
-    <t>73141609</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO ESTRADA TAMARA</t>
-  </si>
-  <si>
-    <t>1050946780</t>
-  </si>
-  <si>
-    <t>HENRY DAVID MORENO JULIO</t>
-  </si>
-  <si>
-    <t>1143332224</t>
-  </si>
-  <si>
-    <t>MARIA DE LOS ANGELES CASTILLO CARRILLO</t>
-  </si>
-  <si>
-    <t>73137090</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE ASHOOK CALDERIN</t>
-  </si>
-  <si>
-    <t>1143343096</t>
-  </si>
-  <si>
-    <t>JULIETH LISSETH LABARCES ACOSTA</t>
-  </si>
-  <si>
-    <t>45761000</t>
-  </si>
-  <si>
-    <t>ELA CECILIA OSORIO ESPINOSA</t>
-  </si>
-  <si>
-    <t>18009698</t>
-  </si>
-  <si>
-    <t>NALLYD CARDONA ATENCIO</t>
-  </si>
-  <si>
-    <t>78076826</t>
-  </si>
-  <si>
-    <t>ALFREDO LUIS CUELLO BOSSA</t>
-  </si>
-  <si>
-    <t>33205126</t>
-  </si>
-  <si>
-    <t>MARELVI CELEDONIA FERIA ACUÑA</t>
-  </si>
-  <si>
-    <t>1143348658</t>
-  </si>
-  <si>
-    <t>KAREN PAOLA RUEDA HERAZO</t>
-  </si>
-  <si>
-    <t>1047452849</t>
-  </si>
-  <si>
-    <t>PEDRO ANDRES LUNA GARCIA</t>
-  </si>
-  <si>
-    <t>30775809</t>
-  </si>
-  <si>
-    <t>SORAYA FIGUEROA VILLAMIL</t>
-  </si>
-  <si>
-    <t>73189750</t>
-  </si>
-  <si>
-    <t>ALEXANDER PASSO MORENO</t>
-  </si>
-  <si>
-    <t>43991455</t>
-  </si>
-  <si>
-    <t>HEIDY TATIANA GONZALEZ OCAMPO</t>
-  </si>
-  <si>
-    <t>22456953</t>
-  </si>
-  <si>
-    <t>ANA ISABEL ROSAS MOLINA</t>
-  </si>
-  <si>
-    <t>9111759</t>
-  </si>
-  <si>
-    <t>ELEAZAR HERNANDEZ MONTES</t>
-  </si>
-  <si>
-    <t>45532902</t>
-  </si>
-  <si>
-    <t>SISSY EMPERATRIZ ALGARIN MENDOZA</t>
-  </si>
-  <si>
-    <t>1047452800</t>
-  </si>
-  <si>
-    <t>EDUARDO JOSE MARTINEZ DAVILA</t>
-  </si>
-  <si>
-    <t>1047418613</t>
-  </si>
-  <si>
-    <t>YEMENSON PATERNINA TEHERAN</t>
-  </si>
-  <si>
-    <t>73110176</t>
-  </si>
-  <si>
-    <t>JOSE LUIS ARZUZA JIMENEZ</t>
-  </si>
-  <si>
-    <t>51898690</t>
-  </si>
-  <si>
-    <t>MARCELA MUNAR GONZALEZ</t>
-  </si>
-  <si>
-    <t>3894469</t>
-  </si>
-  <si>
-    <t>OSBALDO BLANCO TERAN</t>
-  </si>
-  <si>
-    <t>1143354593</t>
-  </si>
-  <si>
-    <t>LIZETH PEREZ FRANCO</t>
-  </si>
-  <si>
-    <t>22804672</t>
-  </si>
-  <si>
-    <t>MERLY DEL CARMEN CAICEDO ARZUZA</t>
-  </si>
-  <si>
-    <t>1007401962</t>
-  </si>
-  <si>
-    <t>JEFERSON RECUERO MORELO</t>
-  </si>
-  <si>
-    <t>9096829</t>
-  </si>
-  <si>
-    <t>DONACYTER MARSIGLIA MARTINEZ</t>
-  </si>
-  <si>
-    <t>73110089</t>
-  </si>
-  <si>
-    <t>GILBERTO CHICO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1143335470</t>
-  </si>
-  <si>
-    <t>DEIBY ALONSO CARRASCAL AGUIRRE</t>
-  </si>
-  <si>
-    <t>1047405776</t>
-  </si>
-  <si>
-    <t>ANDY CANTILLO TORRES</t>
-  </si>
-  <si>
-    <t>1143401809</t>
-  </si>
-  <si>
-    <t>ANDRES FELIPE ALMEIDA CABARCAS</t>
-  </si>
-  <si>
-    <t>1104701506</t>
-  </si>
-  <si>
-    <t>MARGARITA MARIA PARRA MENDOZA</t>
-  </si>
-  <si>
-    <t>1047403516</t>
-  </si>
-  <si>
-    <t>LUISA FERNANDA CORRALES PEREZ</t>
-  </si>
-  <si>
-    <t>1143363058</t>
-  </si>
-  <si>
-    <t>HAROLD ENRIQUE MAZA JULIO</t>
-  </si>
-  <si>
-    <t>1128058560</t>
-  </si>
-  <si>
-    <t>ALEX JESUS HERNANDEZ BARRERA</t>
-  </si>
-  <si>
-    <t>1007276897</t>
-  </si>
-  <si>
-    <t>YURIS MARCELA RUIZ LOPEZ</t>
-  </si>
-  <si>
-    <t>73106139</t>
-  </si>
-  <si>
-    <t>JULIO CESAR ARCINIEGAS LOPEZ</t>
-  </si>
-  <si>
-    <t>73008307</t>
-  </si>
-  <si>
-    <t>WILSON ANDRES FERRER SUAREZ</t>
-  </si>
-  <si>
-    <t>1143346805</t>
-  </si>
-  <si>
-    <t>ERICK AREVALO TORRES</t>
-  </si>
-  <si>
-    <t>45496778</t>
-  </si>
-  <si>
-    <t>MARELBI MIRANDA MARRUGO</t>
-  </si>
-  <si>
-    <t>1143380612</t>
-  </si>
-  <si>
-    <t>KENLLY PAOLA MARTINEZ MORALES</t>
-  </si>
-  <si>
-    <t>1067922403</t>
-  </si>
-  <si>
-    <t>JESUS CONTRERAS BERNAL</t>
-  </si>
-  <si>
-    <t>1143359183</t>
-  </si>
-  <si>
-    <t>NICOLAS DAVID RIOS NAVARRO</t>
-  </si>
-  <si>
-    <t>1050967283</t>
-  </si>
-  <si>
-    <t>WENDY JOHANA PAJARO ROMERO</t>
-  </si>
-  <si>
-    <t>1003061295</t>
-  </si>
-  <si>
-    <t>LUIS DAVID GUERRA PATRON</t>
-  </si>
-  <si>
-    <t>1143398622</t>
-  </si>
-  <si>
-    <t>VALENTIN HENAO GIRALDO</t>
-  </si>
-  <si>
-    <t>1151448637</t>
-  </si>
-  <si>
-    <t>JOSE MIGUEL CASTRO ALVAREZ</t>
-  </si>
-  <si>
-    <t>1143364084</t>
-  </si>
-  <si>
-    <t>JORDYS DE JESÚS SINMING GÓMEZ</t>
-  </si>
-  <si>
-    <t>1001898664</t>
-  </si>
-  <si>
-    <t>ZURY ZARAY ROJAS GOMEZ</t>
-  </si>
-  <si>
-    <t>1050970387</t>
-  </si>
-  <si>
-    <t>WENDY DEVOZ CASTILLO</t>
-  </si>
-  <si>
-    <t>1102856766</t>
-  </si>
-  <si>
-    <t>ANGIE JOHANNA FUENTES ANGARITA</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>78709818</t>
-  </si>
-  <si>
-    <t>DOMINGO MOISES MILANES SUAREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -602,7 +602,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -615,9 +617,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -817,23 +817,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,10 +861,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -917,7 +917,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AA9B34-26FA-845D-B93D-3C757C9DC2E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2251AE14-B6F6-F363-526E-36C62E25B3D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1268,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCE14DE-F7FD-464E-8D9E-34DDD75A804C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F920F516-E063-43AC-A302-FEF7B771E6B1}">
   <dimension ref="B2:J164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1446,10 +1446,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35192</v>
+        <v>36000</v>
       </c>
       <c r="G16" s="18">
-        <v>879800</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1469,10 +1469,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>35192</v>
+        <v>36000</v>
       </c>
       <c r="G17" s="18">
-        <v>879800</v>
+        <v>1200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1483,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1506,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>36000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1529,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>72080</v>
+        <v>36000</v>
       </c>
       <c r="G20" s="18">
-        <v>1802000</v>
+        <v>1200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1552,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F21" s="18">
-        <v>72080</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="18">
-        <v>1802000</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1575,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>64200</v>
+        <v>36000</v>
       </c>
       <c r="G22" s="18">
-        <v>1605000</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1598,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F23" s="18">
-        <v>64200</v>
+        <v>36000</v>
       </c>
       <c r="G23" s="18">
-        <v>1605000</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1627,13 +1627,13 @@
         <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>39856</v>
+        <v>61334</v>
       </c>
       <c r="G24" s="18">
-        <v>996400</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1650,13 +1650,13 @@
         <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>39856</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="18">
-        <v>996400</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1667,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>36000</v>
+        <v>80000</v>
       </c>
       <c r="G26" s="18">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1690,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>36000</v>
+        <v>35192</v>
       </c>
       <c r="G27" s="18">
-        <v>900000</v>
+        <v>879800</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1713,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1736,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>36000</v>
+        <v>72080</v>
       </c>
       <c r="G29" s="18">
-        <v>900000</v>
+        <v>1802000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1759,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>36000</v>
+        <v>64200</v>
       </c>
       <c r="G30" s="18">
-        <v>900000</v>
+        <v>1605000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1782,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>36000</v>
+        <v>39856</v>
       </c>
       <c r="G31" s="18">
-        <v>900000</v>
+        <v>996400</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1805,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
-        <v>36000</v>
+        <v>29520</v>
       </c>
       <c r="G32" s="18">
-        <v>900000</v>
+        <v>738000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1828,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>36000</v>
+        <v>31800</v>
       </c>
       <c r="G33" s="18">
-        <v>900000</v>
+        <v>795000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1851,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>954000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1874,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>954000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1897,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G36" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1920,19 +1920,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>31800</v>
+        <v>93280</v>
       </c>
       <c r="G37" s="18">
-        <v>795000</v>
+        <v>2332000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1943,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
-        <v>38160</v>
+        <v>36000</v>
       </c>
       <c r="G38" s="18">
-        <v>954000</v>
+        <v>900000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1966,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
-        <v>38160</v>
+        <v>169600</v>
       </c>
       <c r="G39" s="18">
-        <v>954000</v>
+        <v>4240000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1989,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>38160</v>
+        <v>29520</v>
       </c>
       <c r="G40" s="18">
-        <v>954000</v>
+        <v>738000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -2012,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>38160</v>
+        <v>31800</v>
       </c>
       <c r="G41" s="18">
-        <v>954000</v>
+        <v>795000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -2035,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G42" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -2058,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G43" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -2081,19 +2081,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F44" s="18">
-        <v>93280</v>
+        <v>38160</v>
       </c>
       <c r="G44" s="18">
-        <v>2332000</v>
+        <v>954000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2104,19 +2104,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F45" s="18">
-        <v>93280</v>
+        <v>50880</v>
       </c>
       <c r="G45" s="18">
-        <v>2332000</v>
+        <v>1272000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2127,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>36000</v>
+        <v>148400</v>
       </c>
       <c r="G46" s="18">
-        <v>900000</v>
+        <v>3710000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2150,19 +2150,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
-        <v>36000</v>
+        <v>169600</v>
       </c>
       <c r="G47" s="18">
-        <v>900000</v>
+        <v>4240000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2173,19 +2173,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F48" s="18">
-        <v>169600</v>
+        <v>32000</v>
       </c>
       <c r="G48" s="18">
-        <v>4240000</v>
+        <v>800000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2196,19 +2196,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
-        <v>169600</v>
+        <v>29520</v>
       </c>
       <c r="G49" s="18">
-        <v>4240000</v>
+        <v>738000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2219,13 +2219,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
         <v>29520</v>
@@ -2242,19 +2242,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F51" s="18">
-        <v>29520</v>
+        <v>37312</v>
       </c>
       <c r="G51" s="18">
-        <v>738000</v>
+        <v>932800</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2265,19 +2265,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F52" s="18">
-        <v>31800</v>
+        <v>31291</v>
       </c>
       <c r="G52" s="18">
-        <v>795000</v>
+        <v>782280</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2288,19 +2288,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F53" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G53" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2311,19 +2311,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F54" s="18">
-        <v>36040</v>
+        <v>32000</v>
       </c>
       <c r="G54" s="18">
-        <v>901000</v>
+        <v>800000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2334,19 +2334,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F55" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G55" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2357,19 +2357,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F56" s="18">
-        <v>36040</v>
+        <v>69960</v>
       </c>
       <c r="G56" s="18">
-        <v>901000</v>
+        <v>1749000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2380,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F57" s="18">
         <v>36040</v>
@@ -2403,19 +2403,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F58" s="18">
-        <v>38160</v>
+        <v>63600</v>
       </c>
       <c r="G58" s="18">
-        <v>954000</v>
+        <v>1590000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2426,19 +2426,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F59" s="18">
-        <v>38160</v>
+        <v>29520</v>
       </c>
       <c r="G59" s="18">
-        <v>954000</v>
+        <v>738000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2449,19 +2449,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F60" s="18">
-        <v>50880</v>
+        <v>29520</v>
       </c>
       <c r="G60" s="18">
-        <v>1272000</v>
+        <v>738000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2472,19 +2472,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F61" s="18">
-        <v>50880</v>
+        <v>31800</v>
       </c>
       <c r="G61" s="18">
-        <v>1272000</v>
+        <v>795000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2495,19 +2495,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F62" s="18">
-        <v>148400</v>
+        <v>29520</v>
       </c>
       <c r="G62" s="18">
-        <v>3710000</v>
+        <v>738000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2518,19 +2518,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F63" s="18">
-        <v>148400</v>
+        <v>31800</v>
       </c>
       <c r="G63" s="18">
-        <v>3710000</v>
+        <v>795000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2541,19 +2541,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F64" s="18">
-        <v>169600</v>
+        <v>80000</v>
       </c>
       <c r="G64" s="18">
-        <v>4240000</v>
+        <v>2000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2564,19 +2564,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F65" s="18">
-        <v>169600</v>
+        <v>39432</v>
       </c>
       <c r="G65" s="18">
-        <v>4240000</v>
+        <v>985800</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2587,19 +2587,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F66" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G66" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2610,19 +2610,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F67" s="18">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="G67" s="18">
-        <v>800000</v>
+        <v>795000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2633,19 +2633,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F68" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G68" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2656,13 +2656,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F69" s="18">
         <v>29520</v>
@@ -2679,19 +2679,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F70" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G70" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2702,13 +2702,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F71" s="18">
         <v>29520</v>
@@ -2725,19 +2725,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F72" s="18">
-        <v>37312</v>
+        <v>63600</v>
       </c>
       <c r="G72" s="18">
-        <v>932800</v>
+        <v>1590000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2748,19 +2748,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F73" s="18">
-        <v>37312</v>
+        <v>29520</v>
       </c>
       <c r="G73" s="18">
-        <v>932800</v>
+        <v>738000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2771,19 +2771,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F74" s="18">
-        <v>31291</v>
+        <v>29520</v>
       </c>
       <c r="G74" s="18">
-        <v>782280</v>
+        <v>738000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2794,19 +2794,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F75" s="18">
-        <v>31291</v>
+        <v>36000</v>
       </c>
       <c r="G75" s="18">
-        <v>782280</v>
+        <v>900000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2817,19 +2817,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F76" s="18">
-        <v>29520</v>
+        <v>48000</v>
       </c>
       <c r="G76" s="18">
-        <v>738000</v>
+        <v>1200000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2840,13 +2840,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F77" s="18">
         <v>29520</v>
@@ -2863,19 +2863,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F78" s="18">
-        <v>32000</v>
+        <v>63600</v>
       </c>
       <c r="G78" s="18">
-        <v>800000</v>
+        <v>1590000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2886,19 +2886,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F79" s="18">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="G79" s="18">
-        <v>800000</v>
+        <v>795000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2909,19 +2909,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F80" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G80" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2932,19 +2932,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F81" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G81" s="18">
-        <v>738000</v>
+        <v>954000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2955,19 +2955,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F82" s="18">
-        <v>69960</v>
+        <v>29520</v>
       </c>
       <c r="G82" s="18">
-        <v>1749000</v>
+        <v>738000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2978,19 +2978,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F83" s="18">
-        <v>69960</v>
+        <v>29520</v>
       </c>
       <c r="G83" s="18">
-        <v>1749000</v>
+        <v>738000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -3001,19 +3001,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F84" s="18">
-        <v>36040</v>
+        <v>31800</v>
       </c>
       <c r="G84" s="18">
-        <v>901000</v>
+        <v>795000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -3024,19 +3024,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F85" s="18">
-        <v>36040</v>
+        <v>29520</v>
       </c>
       <c r="G85" s="18">
-        <v>901000</v>
+        <v>738000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3047,19 +3047,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F86" s="18">
-        <v>63600</v>
+        <v>29520</v>
       </c>
       <c r="G86" s="18">
-        <v>1590000</v>
+        <v>738000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -3070,19 +3070,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F87" s="18">
-        <v>63600</v>
+        <v>29520</v>
       </c>
       <c r="G87" s="18">
-        <v>1590000</v>
+        <v>738000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3093,13 +3093,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F88" s="18">
         <v>29520</v>
@@ -3116,19 +3116,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F89" s="18">
-        <v>29520</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="18">
-        <v>738000</v>
+        <v>800000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3139,19 +3139,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F90" s="18">
-        <v>29520</v>
+        <v>32000</v>
       </c>
       <c r="G90" s="18">
-        <v>738000</v>
+        <v>800000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3162,19 +3162,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F91" s="18">
-        <v>29520</v>
+        <v>80000</v>
       </c>
       <c r="G91" s="18">
-        <v>738000</v>
+        <v>2000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3185,19 +3185,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F92" s="18">
-        <v>31800</v>
+        <v>40000</v>
       </c>
       <c r="G92" s="18">
-        <v>795000</v>
+        <v>1000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3208,19 +3208,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F93" s="18">
-        <v>31800</v>
+        <v>35192</v>
       </c>
       <c r="G93" s="18">
-        <v>795000</v>
+        <v>879800</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3231,19 +3231,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F94" s="18">
-        <v>29520</v>
+        <v>40000</v>
       </c>
       <c r="G94" s="18">
-        <v>738000</v>
+        <v>1000000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3254,19 +3254,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F95" s="18">
-        <v>29520</v>
+        <v>72080</v>
       </c>
       <c r="G95" s="18">
-        <v>738000</v>
+        <v>1802000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3277,19 +3277,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F96" s="18">
-        <v>31800</v>
+        <v>64200</v>
       </c>
       <c r="G96" s="18">
-        <v>795000</v>
+        <v>1605000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3300,19 +3300,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F97" s="18">
-        <v>31800</v>
+        <v>39856</v>
       </c>
       <c r="G97" s="18">
-        <v>795000</v>
+        <v>996400</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3323,19 +3323,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F98" s="18">
-        <v>80000</v>
+        <v>29520</v>
       </c>
       <c r="G98" s="18">
-        <v>2000000</v>
+        <v>738000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3346,19 +3346,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F99" s="18">
-        <v>80000</v>
+        <v>31800</v>
       </c>
       <c r="G99" s="18">
-        <v>2000000</v>
+        <v>795000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3369,19 +3369,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F100" s="18">
-        <v>39432</v>
+        <v>38160</v>
       </c>
       <c r="G100" s="18">
-        <v>985800</v>
+        <v>954000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3392,19 +3392,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F101" s="18">
-        <v>39432</v>
+        <v>38160</v>
       </c>
       <c r="G101" s="18">
-        <v>985800</v>
+        <v>954000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3415,13 +3415,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F102" s="18">
         <v>29520</v>
@@ -3438,19 +3438,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F103" s="18">
-        <v>29520</v>
+        <v>93280</v>
       </c>
       <c r="G103" s="18">
-        <v>738000</v>
+        <v>2332000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3461,19 +3461,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F104" s="18">
-        <v>31800</v>
+        <v>36000</v>
       </c>
       <c r="G104" s="18">
-        <v>795000</v>
+        <v>900000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3484,19 +3484,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F105" s="18">
-        <v>31800</v>
+        <v>169600</v>
       </c>
       <c r="G105" s="18">
-        <v>795000</v>
+        <v>4240000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3507,19 +3507,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F106" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G106" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3530,13 +3530,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F107" s="18">
         <v>31800</v>
@@ -3553,19 +3553,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F108" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G108" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3576,19 +3576,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F109" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G109" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3599,19 +3599,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F110" s="18">
-        <v>36000</v>
+        <v>38160</v>
       </c>
       <c r="G110" s="18">
-        <v>900000</v>
+        <v>954000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3622,19 +3622,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F111" s="18">
-        <v>36000</v>
+        <v>50880</v>
       </c>
       <c r="G111" s="18">
-        <v>900000</v>
+        <v>1272000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3645,19 +3645,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F112" s="18">
-        <v>29520</v>
+        <v>148400</v>
       </c>
       <c r="G112" s="18">
-        <v>738000</v>
+        <v>3710000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3668,19 +3668,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F113" s="18">
-        <v>29520</v>
+        <v>169600</v>
       </c>
       <c r="G113" s="18">
-        <v>738000</v>
+        <v>4240000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3691,19 +3691,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F114" s="18">
-        <v>63600</v>
+        <v>32000</v>
       </c>
       <c r="G114" s="18">
-        <v>1590000</v>
+        <v>800000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3714,19 +3714,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F115" s="18">
-        <v>63600</v>
+        <v>29520</v>
       </c>
       <c r="G115" s="18">
-        <v>1590000</v>
+        <v>738000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3737,13 +3737,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F116" s="18">
         <v>29520</v>
@@ -3760,19 +3760,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F117" s="18">
-        <v>29520</v>
+        <v>37312</v>
       </c>
       <c r="G117" s="18">
-        <v>738000</v>
+        <v>932800</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3783,19 +3783,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F118" s="18">
-        <v>29520</v>
+        <v>31291</v>
       </c>
       <c r="G118" s="18">
-        <v>738000</v>
+        <v>782280</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3806,13 +3806,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F119" s="18">
         <v>29520</v>
@@ -3829,19 +3829,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F120" s="18">
-        <v>36000</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>900000</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3852,19 +3852,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F121" s="18">
-        <v>36000</v>
+        <v>29520</v>
       </c>
       <c r="G121" s="18">
-        <v>900000</v>
+        <v>738000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3875,19 +3875,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F122" s="18">
-        <v>48000</v>
+        <v>69960</v>
       </c>
       <c r="G122" s="18">
-        <v>1200000</v>
+        <v>1749000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3898,19 +3898,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F123" s="18">
-        <v>48000</v>
+        <v>36040</v>
       </c>
       <c r="G123" s="18">
-        <v>1200000</v>
+        <v>901000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3921,19 +3921,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F124" s="18">
-        <v>29520</v>
+        <v>63600</v>
       </c>
       <c r="G124" s="18">
-        <v>738000</v>
+        <v>1590000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3944,13 +3944,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F125" s="18">
         <v>29520</v>
@@ -3967,19 +3967,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F126" s="18">
-        <v>63600</v>
+        <v>29520</v>
       </c>
       <c r="G126" s="18">
-        <v>1590000</v>
+        <v>738000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3990,19 +3990,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F127" s="18">
-        <v>63600</v>
+        <v>31800</v>
       </c>
       <c r="G127" s="18">
-        <v>1590000</v>
+        <v>795000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -4013,19 +4013,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F128" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G128" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -4036,13 +4036,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F129" s="18">
         <v>31800</v>
@@ -4059,19 +4059,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F130" s="18">
-        <v>36040</v>
+        <v>80000</v>
       </c>
       <c r="G130" s="18">
-        <v>901000</v>
+        <v>2000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4082,19 +4082,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F131" s="18">
-        <v>36040</v>
+        <v>39432</v>
       </c>
       <c r="G131" s="18">
-        <v>901000</v>
+        <v>985800</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4105,19 +4105,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F132" s="18">
-        <v>38160</v>
+        <v>29520</v>
       </c>
       <c r="G132" s="18">
-        <v>954000</v>
+        <v>738000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4128,19 +4128,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F133" s="18">
-        <v>38160</v>
+        <v>31800</v>
       </c>
       <c r="G133" s="18">
-        <v>954000</v>
+        <v>795000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4151,19 +4151,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F134" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G134" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4174,13 +4174,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F135" s="18">
         <v>29520</v>
@@ -4197,19 +4197,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F136" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G136" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4220,13 +4220,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F137" s="18">
         <v>29520</v>
@@ -4243,19 +4243,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F138" s="18">
-        <v>31800</v>
+        <v>63600</v>
       </c>
       <c r="G138" s="18">
-        <v>795000</v>
+        <v>1590000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4266,19 +4266,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F139" s="18">
-        <v>31800</v>
+        <v>29520</v>
       </c>
       <c r="G139" s="18">
-        <v>795000</v>
+        <v>738000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4289,13 +4289,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F140" s="18">
         <v>29520</v>
@@ -4312,19 +4312,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F141" s="18">
-        <v>29520</v>
+        <v>36000</v>
       </c>
       <c r="G141" s="18">
-        <v>738000</v>
+        <v>900000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4335,19 +4335,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F142" s="18">
-        <v>29520</v>
+        <v>48000</v>
       </c>
       <c r="G142" s="18">
-        <v>738000</v>
+        <v>1200000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4358,13 +4358,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F143" s="18">
         <v>29520</v>
@@ -4381,19 +4381,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F144" s="18">
-        <v>29520</v>
+        <v>63600</v>
       </c>
       <c r="G144" s="18">
-        <v>738000</v>
+        <v>1590000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4404,19 +4404,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F145" s="18">
-        <v>29520</v>
+        <v>31800</v>
       </c>
       <c r="G145" s="18">
-        <v>738000</v>
+        <v>795000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4427,19 +4427,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F146" s="18">
-        <v>29520</v>
+        <v>36040</v>
       </c>
       <c r="G146" s="18">
-        <v>738000</v>
+        <v>901000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4450,19 +4450,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F147" s="18">
-        <v>29520</v>
+        <v>38160</v>
       </c>
       <c r="G147" s="18">
-        <v>738000</v>
+        <v>954000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4473,19 +4473,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F148" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G148" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4496,19 +4496,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F149" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G149" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4519,19 +4519,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F150" s="18">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="G150" s="18">
-        <v>800000</v>
+        <v>795000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4542,19 +4542,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F151" s="18">
-        <v>32000</v>
+        <v>29520</v>
       </c>
       <c r="G151" s="18">
-        <v>800000</v>
+        <v>738000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4565,19 +4565,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F152" s="18">
-        <v>80000</v>
+        <v>29520</v>
       </c>
       <c r="G152" s="18">
-        <v>2000000</v>
+        <v>738000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4588,19 +4588,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F153" s="18">
-        <v>80000</v>
+        <v>29520</v>
       </c>
       <c r="G153" s="18">
-        <v>2000000</v>
+        <v>738000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4611,19 +4611,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F154" s="18">
-        <v>80000</v>
+        <v>29520</v>
       </c>
       <c r="G154" s="18">
-        <v>2000000</v>
+        <v>738000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4640,13 +4640,13 @@
         <v>150</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F155" s="18">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="G155" s="18">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4657,19 +4657,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F156" s="18">
-        <v>61334</v>
+        <v>32000</v>
       </c>
       <c r="G156" s="18">
-        <v>2000000</v>
+        <v>800000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4680,19 +4680,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="F157" s="18">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G157" s="18">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4703,13 +4703,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D158" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="D158" s="23" t="s">
-        <v>155</v>
-      </c>
       <c r="E158" s="22" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="F158" s="24">
         <v>40000</v>
